--- a/Szerep-funkció mátrix.xlsx
+++ b/Szerep-funkció mátrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pilu\Desktop\20-21  II.félév\Adatb.alapú rendszerek\ETR\ETR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEB4E03-D92B-447B-88B7-D8140ADCD7FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD6D3A9-BEB1-4C49-AE5D-42729D616F00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>Szerepkörök</t>
   </si>
@@ -48,22 +48,40 @@
     <t>Kurzusfelvétel</t>
   </si>
   <si>
-    <t>Vizsga kitöltése</t>
-  </si>
-  <si>
-    <t>Regisztráció</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Tanulók listázása</t>
-  </si>
-  <si>
-    <t>Oktatók listázása</t>
-  </si>
-  <si>
-    <t>Adminok listázása</t>
+    <t>Bejelentkezés</t>
+  </si>
+  <si>
+    <t>Kijelentkezés</t>
+  </si>
+  <si>
+    <t>Kurzus módosítás</t>
+  </si>
+  <si>
+    <t>Kurzusleadás</t>
+  </si>
+  <si>
+    <t>Vizsgaleadás</t>
+  </si>
+  <si>
+    <t>Tanulók lekérdezése</t>
+  </si>
+  <si>
+    <t>Oktatók lekérdezése</t>
+  </si>
+  <si>
+    <t>Vizsga módosítás</t>
+  </si>
+  <si>
+    <t>Tanuló módosítás</t>
+  </si>
+  <si>
+    <t>Oktató módosítás</t>
+  </si>
+  <si>
+    <t>Jelszó módosítás</t>
   </si>
 </sst>
 </file>
@@ -136,17 +154,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,119 +466,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="89.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="103.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I7" s="5"/>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
